--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/51.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/51.xlsx
@@ -479,13 +479,13 @@
         <v>-0.05698596531034374</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.935857827126556</v>
+        <v>-1.929231398865967</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3899330795269101</v>
+        <v>0.3918501226702733</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2277899069671058</v>
+        <v>-0.2308428675251959</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.03904828314578068</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.949711493437143</v>
+        <v>-1.943277061500509</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3091281779836592</v>
+        <v>0.3101589719358407</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2081478800001111</v>
+        <v>-0.2113775063772011</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.02862385633252728</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.025703346448714</v>
+        <v>-2.011520439293627</v>
       </c>
       <c r="F4" t="n">
-        <v>0.276572025652577</v>
+        <v>0.2842139173603931</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2242770312603795</v>
+        <v>-0.2290732892390145</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.02858070590125823</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.084695129513789</v>
+        <v>-2.077913206131518</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2524695517678562</v>
+        <v>0.2590572887540362</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2270073211903787</v>
+        <v>-0.2356303652152855</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.0362654451082542</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.047588007283344</v>
+        <v>-2.043504982797118</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2347474880404064</v>
+        <v>0.2471768774383121</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.214704955976382</v>
+        <v>-0.2234623244256524</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.04740930179187882</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.906390406531791</v>
+        <v>-1.911430492541608</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2557926212227644</v>
+        <v>0.2609538912241266</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2026668594668398</v>
+        <v>-0.2099817004022924</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.05636357660611467</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.634070266880001</v>
+        <v>-1.638910326301363</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2589390248586726</v>
+        <v>0.2582995237948546</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1845067813121174</v>
+        <v>-0.1825795178321179</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.05906606510896649</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.261744863265464</v>
+        <v>-1.261378391194646</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2393627000557688</v>
+        <v>0.2421528519574953</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1302878954562229</v>
+        <v>-0.1241279525606791</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.0496981109197327</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7805918550988664</v>
+        <v>-0.7726740143018686</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2684395577862155</v>
+        <v>0.2672101972936704</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03075933719515869</v>
+        <v>-0.02490600439870572</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.02129603022104724</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2535524555311898</v>
+        <v>-0.2369166675833761</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1514313037807924</v>
+        <v>0.1637103082253346</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05582589473999988</v>
+        <v>0.06360357092027051</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.03380974743018129</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4200027699591748</v>
+        <v>0.4258823836212641</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02742357922755296</v>
+        <v>0.04219196566709445</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1529993954304283</v>
+        <v>0.1638183517840618</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1211302926480376</v>
       </c>
       <c r="E13" t="n">
-        <v>1.094819477000085</v>
+        <v>1.113318286311898</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1367602886432211</v>
+        <v>-0.1238812044333155</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2892145820717554</v>
+        <v>0.2943116099571176</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2412602419081311</v>
       </c>
       <c r="E14" t="n">
-        <v>1.814735609521073</v>
+        <v>1.829305429420251</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3722996268128851</v>
+        <v>-0.3417130793564389</v>
       </c>
       <c r="G14" t="n">
-        <v>0.433400171241353</v>
+        <v>0.4422874839707143</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3926263522593292</v>
       </c>
       <c r="E15" t="n">
-        <v>2.521257260856065</v>
+        <v>2.532065996873062</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6456410701042663</v>
+        <v>-0.6139784672048203</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6247307132663926</v>
+        <v>0.6306263874574819</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5703748449230088</v>
       </c>
       <c r="E16" t="n">
-        <v>3.19659666511352</v>
+        <v>3.200439511688792</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9586228190638186</v>
+        <v>-0.934517425082916</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7819632921763503</v>
+        <v>0.7854484269693495</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7665587497552007</v>
       </c>
       <c r="E17" t="n">
-        <v>3.854305988673253</v>
+        <v>3.855123615604162</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.226838033508019</v>
+        <v>-1.19329050852321</v>
       </c>
       <c r="G17" t="n">
-        <v>0.982278970152842</v>
+        <v>0.9846865894547505</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9724986199749679</v>
       </c>
       <c r="E18" t="n">
-        <v>4.391447460981927</v>
+        <v>4.394230312643199</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.579556451309743</v>
+        <v>-1.555144447229749</v>
       </c>
       <c r="G18" t="n">
-        <v>1.181360907492516</v>
+        <v>1.183768526794424</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.178081417123952</v>
       </c>
       <c r="E19" t="n">
-        <v>4.916092381680513</v>
+        <v>4.921258031826148</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.868957693577074</v>
+        <v>-1.835641586214674</v>
       </c>
       <c r="G19" t="n">
-        <v>1.384897451557552</v>
+        <v>1.377778257066281</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.371840966323567</v>
       </c>
       <c r="E20" t="n">
-        <v>5.278474857795961</v>
+        <v>5.281520518113597</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.188920662483306</v>
+        <v>-2.157123005135452</v>
       </c>
       <c r="G20" t="n">
-        <v>1.59407708149395</v>
+        <v>1.587812015135861</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.541341798997005</v>
       </c>
       <c r="E21" t="n">
-        <v>5.58526454280197</v>
+        <v>5.592850952682332</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.506646107690221</v>
+        <v>-2.469968239598504</v>
       </c>
       <c r="G21" t="n">
-        <v>1.776588933049901</v>
+        <v>1.767447571952722</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.676772950289246</v>
       </c>
       <c r="E22" t="n">
-        <v>5.83183746439463</v>
+        <v>5.827558063440177</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.818251031300047</v>
+        <v>-2.77974226290233</v>
       </c>
       <c r="G22" t="n">
-        <v>1.90232973468705</v>
+        <v>1.895157978464506</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.774466564196576</v>
       </c>
       <c r="E23" t="n">
-        <v>5.986478457943226</v>
+        <v>5.974768872254137</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.064684518300026</v>
+        <v>-3.031730502864171</v>
       </c>
       <c r="G23" t="n">
-        <v>2.021335334480836</v>
+        <v>2.011561772560293</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.835822700589752</v>
       </c>
       <c r="E24" t="n">
-        <v>6.07431057094802</v>
+        <v>6.065281633553841</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.296942398385373</v>
+        <v>-3.265736790538381</v>
       </c>
       <c r="G24" t="n">
-        <v>2.12623102952408</v>
+        <v>2.114679129028811</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.864567840317131</v>
       </c>
       <c r="E25" t="n">
-        <v>6.09229106318756</v>
+        <v>6.077960691175292</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.473668079357052</v>
+        <v>-3.44041986423088</v>
       </c>
       <c r="G25" t="n">
-        <v>2.174319173446249</v>
+        <v>2.174459338062976</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.865924768745073</v>
       </c>
       <c r="E26" t="n">
-        <v>6.037517359057121</v>
+        <v>6.025784412598578</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.639266003803872</v>
+        <v>-3.605066567346471</v>
       </c>
       <c r="G26" t="n">
-        <v>2.195083977395153</v>
+        <v>2.200817586248151</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.84448245569301</v>
       </c>
       <c r="E27" t="n">
-        <v>5.928840139458423</v>
+        <v>5.926044147364332</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.732910568258573</v>
+        <v>-3.692090543732948</v>
       </c>
       <c r="G27" t="n">
-        <v>2.204759716093605</v>
+        <v>2.202284934579514</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.804394943492975</v>
       </c>
       <c r="E28" t="n">
-        <v>5.853489977582806</v>
+        <v>5.855199693897261</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.798518559247602</v>
+        <v>-3.759572506446657</v>
       </c>
       <c r="G28" t="n">
-        <v>2.209262504405967</v>
+        <v>2.211235029376785</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.74929952786685</v>
       </c>
       <c r="E29" t="n">
-        <v>5.654929277411587</v>
+        <v>5.660543162321131</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.838827566941409</v>
+        <v>-3.796533623868011</v>
       </c>
       <c r="G29" t="n">
-        <v>2.208990935461058</v>
+        <v>2.205437178407786</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.682064179905856</v>
       </c>
       <c r="E30" t="n">
-        <v>5.441705314263372</v>
+        <v>5.450705050695733</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.872502846134172</v>
+        <v>-3.820086389646505</v>
       </c>
       <c r="G30" t="n">
-        <v>2.165272715474979</v>
+        <v>2.159655910469253</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.604983067448714</v>
       </c>
       <c r="E31" t="n">
-        <v>5.15598996340154</v>
+        <v>5.173043325103353</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.762996319219838</v>
+        <v>-3.716054313049033</v>
       </c>
       <c r="G31" t="n">
-        <v>2.083675007818365</v>
+        <v>2.076787960973548</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.519477983368426</v>
       </c>
       <c r="E32" t="n">
-        <v>4.850726028650531</v>
+        <v>4.865546976821345</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.686411686683359</v>
+        <v>-3.634001070388055</v>
       </c>
       <c r="G32" t="n">
-        <v>1.937715460218313</v>
+        <v>1.929104096578133</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.42656750723132</v>
       </c>
       <c r="E33" t="n">
-        <v>4.567081025981607</v>
+        <v>4.584604523168693</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.544113939695306</v>
+        <v>-3.499437198137545</v>
       </c>
       <c r="G33" t="n">
-        <v>1.845770391741428</v>
+        <v>1.837280212092794</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.3264307527949</v>
       </c>
       <c r="E34" t="n">
-        <v>4.235108431503605</v>
+        <v>4.254779659432418</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.421954636025157</v>
+        <v>-3.389770795957257</v>
       </c>
       <c r="G34" t="n">
-        <v>1.7131367030671</v>
+        <v>1.714679973899191</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.221268563022322</v>
       </c>
       <c r="E35" t="n">
-        <v>3.89638311460515</v>
+        <v>3.910095886274965</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.307346701081188</v>
+        <v>-3.271593043431016</v>
       </c>
       <c r="G35" t="n">
-        <v>1.604201054956311</v>
+        <v>1.599039784954949</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.113353354183807</v>
       </c>
       <c r="E36" t="n">
-        <v>3.565796105765421</v>
+        <v>3.573760668101328</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.184912908369948</v>
+        <v>-3.145371155947913</v>
       </c>
       <c r="G36" t="n">
-        <v>1.451856717054716</v>
+        <v>1.455552098772806</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.004823767751947</v>
       </c>
       <c r="E37" t="n">
-        <v>3.207503224352608</v>
+        <v>3.228089902434421</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.039154847406442</v>
+        <v>-3.010316707538859</v>
       </c>
       <c r="G37" t="n">
-        <v>1.320811560703297</v>
+        <v>1.324924516175386</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8979812521595923</v>
       </c>
       <c r="E38" t="n">
-        <v>2.851296751661704</v>
+        <v>2.867123672967154</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.975766129515595</v>
+        <v>-2.957209648304191</v>
       </c>
       <c r="G38" t="n">
-        <v>1.176741315332881</v>
+        <v>1.179018990354698</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7945494838490352</v>
       </c>
       <c r="E39" t="n">
-        <v>2.504452107329706</v>
+        <v>2.524888400458155</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.836090628898814</v>
+        <v>-2.817515167062229</v>
       </c>
       <c r="G39" t="n">
-        <v>1.076966008944453</v>
+        <v>1.077348541544271</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6966711492190142</v>
       </c>
       <c r="E40" t="n">
-        <v>2.188601363871518</v>
+        <v>2.208605482765058</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.713823281669938</v>
+        <v>-2.701480035109396</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9552228189802129</v>
+        <v>0.9575282349157578</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6059148940831328</v>
       </c>
       <c r="E41" t="n">
-        <v>1.856106072176971</v>
+        <v>1.875699917556966</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.583948353863382</v>
+        <v>-2.572627140966476</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8341833721957909</v>
+        <v>0.8354054324478815</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5225180198441673</v>
       </c>
       <c r="E42" t="n">
-        <v>1.523993313082242</v>
+        <v>1.545107068524873</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.521588969876626</v>
+        <v>-2.506261385018267</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7182278128639129</v>
+        <v>0.7185709241652765</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4459393863434193</v>
       </c>
       <c r="E43" t="n">
-        <v>1.262466578942494</v>
+        <v>1.279382696123762</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.440390585372875</v>
+        <v>-2.42656392995197</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6519708304984762</v>
+        <v>0.6556384713028388</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3748520206841008</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9988154748304739</v>
+        <v>1.009469445749835</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.321117066754407</v>
+        <v>-2.313743093871273</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5450500487531412</v>
+        <v>0.547676675268686</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3076208041705742</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7862806543811673</v>
+        <v>0.7865522233260764</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.277445568307237</v>
+        <v>-2.26943282438433</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4364794126650795</v>
+        <v>0.44138079410626</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2445343693765264</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5543330345151387</v>
+        <v>0.5518056912697757</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.182608874586308</v>
+        <v>-2.1775673285284</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3772467216650045</v>
+        <v>0.3720723112308241</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1852659183974269</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3567637069976464</v>
+        <v>0.3532727320122837</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.100489199737194</v>
+        <v>-2.086239130369925</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2939436778382087</v>
+        <v>0.291635341806482</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1298289785948163</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2428098735984042</v>
+        <v>0.2333122607670431</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.994434226509768</v>
+        <v>-1.982378609423135</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2093660120280496</v>
+        <v>0.2013737087784153</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.0786509970696562</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1123166154253483</v>
+        <v>0.1053156848294411</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.89761551750543</v>
+        <v>-1.882360205027571</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1538871046697008</v>
+        <v>0.1497522484762474</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.0313314776533704</v>
       </c>
       <c r="E50" t="n">
-        <v>0.005941891666013274</v>
+        <v>0.0003309268526511438</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.816451444131816</v>
+        <v>-1.79715325849023</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08999686025962707</v>
+        <v>0.08296672870190168</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.01163788112283592</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.08557538272023488</v>
+        <v>-0.08905175722468849</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.686012937762169</v>
+        <v>-1.66699143123381</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0345967954981874</v>
+        <v>0.02364789486446307</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.05086676764772783</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1962630885401143</v>
+        <v>-0.1900272231438432</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.568747715292746</v>
+        <v>-1.545804519592206</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.007454049568074038</v>
+        <v>-0.01130127628761846</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.0872149117874868</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3234668583643528</v>
+        <v>-0.3090912248612658</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.452215436964959</v>
+        <v>-1.4339166542416</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07709104326396443</v>
+        <v>-0.07794663144523693</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1217347176640387</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3474700489788918</v>
+        <v>-0.3428504568192567</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.379379477901888</v>
+        <v>-1.362640026539619</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1414017815242199</v>
+        <v>-0.1417624134026743</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1553743756318434</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4820412214698557</v>
+        <v>-0.4706878875149497</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.33555175430899</v>
+        <v>-1.316282039605177</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1583368793306699</v>
+        <v>-0.1494524866974904</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1885787661650335</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.567894969311469</v>
+        <v>-0.5478280683500198</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.240375599406925</v>
+        <v>-1.234319319925836</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2040860262112031</v>
+        <v>-0.2003147219923859</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2212208167802941</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6747193878828039</v>
+        <v>-0.6464280360252661</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.199873865365118</v>
+        <v>-1.192961997702756</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2379022000447394</v>
+        <v>-0.2286060738499237</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2530816688371827</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6984437093119794</v>
+        <v>-0.6678936630578058</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.15459923411413</v>
+        <v>-1.153819568433584</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2737799617826389</v>
+        <v>-0.2627711991771873</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2836871599708455</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7871007494881375</v>
+        <v>-0.7650438029787797</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.144568703729587</v>
+        <v>-1.139934511089043</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3246392769813525</v>
+        <v>-0.315292049103355</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3127302373065468</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8485673140673027</v>
+        <v>-0.831915465590489</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.097195983371963</v>
+        <v>-1.101619929087417</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3589401867810706</v>
+        <v>-0.3486103465378915</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3398532524511638</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9863053308674475</v>
+        <v>-0.9615034939471815</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.095113954794327</v>
+        <v>-1.091269648170965</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4013253828601501</v>
+        <v>-0.3920934987813344</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3640895695246651</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.111729302068868</v>
+        <v>-1.081786635820513</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.094874506907418</v>
+        <v>-1.090822873455147</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4460495759808654</v>
+        <v>-0.4327645984016871</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3852643239060472</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.17100433446358</v>
+        <v>-1.142374251448951</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.133283992034954</v>
+        <v>-1.129765276135864</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5076957264752124</v>
+        <v>-0.491871725265944</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4031656084214558</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.264098460788009</v>
+        <v>-1.237562086735744</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.166643170816035</v>
+        <v>-1.158136930638402</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5333064300378419</v>
+        <v>-0.520958803333027</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4180287846878103</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.403946247079517</v>
+        <v>-1.365911994311346</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.127664266933046</v>
+        <v>-1.118181254582594</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5594602714902894</v>
+        <v>-0.5461723738149293</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4300815832747442</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.463383344812319</v>
+        <v>-1.42546443584333</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.213614377948659</v>
+        <v>-1.195995977635664</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6137565398950021</v>
+        <v>-0.6007007898660965</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4394795826237494</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.561208026951293</v>
+        <v>-1.525803320794848</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.30574633258118</v>
+        <v>-1.286860610525276</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.656936002135536</v>
+        <v>-0.6471113385318114</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4466017979571558</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.579686395589834</v>
+        <v>-1.553767621880022</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.378342843757342</v>
+        <v>-1.356542865711984</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6817947809313475</v>
+        <v>-0.6705801515450778</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4515318133581085</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.638500052787818</v>
+        <v>-1.621163441756368</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.461146551137047</v>
+        <v>-1.43851142558369</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6731104148866226</v>
+        <v>-0.6668132274705334</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4544876746072475</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.693082490618349</v>
+        <v>-1.677281850178535</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.533893447266573</v>
+        <v>-1.51447918780176</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6994526025427973</v>
+        <v>-0.6911274083284359</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4553838929064828</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.731911009547975</v>
+        <v>-1.708922552356617</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.649399311786451</v>
+        <v>-1.625648709491639</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7474589837718754</v>
+        <v>-0.7312568301070616</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4544322501733219</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.710890697183162</v>
+        <v>-1.689794462317622</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.741623249448699</v>
+        <v>-1.718958922933524</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7674266014631427</v>
+        <v>-0.7541401638358736</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4517090922976241</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.702215091426983</v>
+        <v>-1.678176859658262</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.79678386632323</v>
+        <v>-1.771999549980055</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7842755564322291</v>
+        <v>-0.7768818728998674</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4470185543064712</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.651634645413633</v>
+        <v>-1.628792193031366</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.864353431922394</v>
+        <v>-1.845135548925808</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7846464086473199</v>
+        <v>-0.7731996316145957</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.440223769831702</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.558033882401658</v>
+        <v>-1.540980520699844</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.961458310352549</v>
+        <v>-1.949057391892416</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7858086069276832</v>
+        <v>-0.7768117905915038</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4311870402558237</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.439978773915053</v>
+        <v>-1.423947445876875</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.013869656671899</v>
+        <v>-2.003354390321174</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7675857467050518</v>
+        <v>-0.7646218490805071</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4189178790231651</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.296946622737273</v>
+        <v>-1.289890210313912</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.067695789591339</v>
+        <v>-2.054050910157752</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7542233865770553</v>
+        <v>-0.7519077503048741</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.403369189181829</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.104916717676689</v>
+        <v>-1.109721735943869</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.087890444760743</v>
+        <v>-2.082441545285471</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7273366009829716</v>
+        <v>-0.7259101339981539</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3842468934300877</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9339859675778253</v>
+        <v>-0.9509444261537298</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.090212651249333</v>
+        <v>-2.078949110252018</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6722475264648955</v>
+        <v>-0.6707787180854414</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3614977512700608</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6968449566524344</v>
+        <v>-0.7080756465677041</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.120756127287097</v>
+        <v>-2.115320368244644</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6199675844737278</v>
+        <v>-0.6104042694782758</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3349884020572477</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4363402561763225</v>
+        <v>-0.4501304103949552</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.120108595958779</v>
+        <v>-2.118127310699416</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5215968443487542</v>
+        <v>-0.5166589617053009</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3056033872389683</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1528193575951259</v>
+        <v>-0.1577090586515791</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.106975463381056</v>
+        <v>-2.103131156757693</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4543952108684995</v>
+        <v>-0.4473972003687741</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2740444128279926</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1429586447092492</v>
+        <v>0.1445092157817942</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.053167581062752</v>
+        <v>-2.034561458216257</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3400004429458029</v>
+        <v>-0.3322359071983504</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2411858245199098</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4827381163293398</v>
+        <v>0.4911567536215193</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.997322931657631</v>
+        <v>-1.976617259656409</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2587064252920975</v>
+        <v>-0.2519639232082811</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2078884758588589</v>
       </c>
       <c r="E85" t="n">
-        <v>0.785982804570622</v>
+        <v>0.7986691624325277</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.922986043157105</v>
+        <v>-1.904225885237019</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1868749793155713</v>
+        <v>-0.1775423519184829</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1749784613384616</v>
       </c>
       <c r="E86" t="n">
-        <v>1.104984331808991</v>
+        <v>1.114162194108443</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.878074963880753</v>
+        <v>-1.853193554339533</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1097493989614102</v>
+        <v>-0.1052947922360478</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1438398191640422</v>
       </c>
       <c r="E87" t="n">
-        <v>1.358269094475559</v>
+        <v>1.357569731440014</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.713272035619434</v>
+        <v>-1.675738579346444</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.06198538571542303</v>
+        <v>-0.05853383202851486</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1161656283975858</v>
       </c>
       <c r="E88" t="n">
-        <v>1.5796956077985</v>
+        <v>1.581942621810408</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.536028037575482</v>
+        <v>-1.493261768944675</v>
       </c>
       <c r="G88" t="n">
-        <v>0.007980118800921816</v>
+        <v>0.01028261464028483</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.09232694384776757</v>
       </c>
       <c r="E89" t="n">
-        <v>1.76096933857336</v>
+        <v>1.771548847040085</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.31720186990245</v>
+        <v>-1.257465462311011</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06371745467136139</v>
+        <v>0.06662441042036062</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.0738683422873611</v>
       </c>
       <c r="E90" t="n">
-        <v>1.940609275534494</v>
+        <v>1.954329347444763</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.091450694134237</v>
+        <v>-1.0267034014948</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09579763132480733</v>
+        <v>0.09845491885026116</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.06189795686393516</v>
       </c>
       <c r="E91" t="n">
-        <v>2.124305226092172</v>
+        <v>2.139605070036804</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8686546557020246</v>
+        <v>-0.8012077341424972</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08062919170835685</v>
+        <v>0.08195783547108378</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.0577777957490097</v>
       </c>
       <c r="E92" t="n">
-        <v>2.24323344333714</v>
+        <v>2.254827685227046</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6681812925317148</v>
+        <v>-0.6003284776029149</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09501942569235299</v>
+        <v>0.09164233445808118</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.06252015343867451</v>
       </c>
       <c r="E93" t="n">
-        <v>2.347971453186566</v>
+        <v>2.359542334307017</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.417479354937964</v>
+        <v>-0.3510092055512545</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0484438915923655</v>
+        <v>0.04201967999236722</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.07587238944013809</v>
       </c>
       <c r="E94" t="n">
-        <v>2.368361024776106</v>
+        <v>2.377930179963922</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2765482129630018</v>
+        <v>-0.2091217320767472</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01169448114419355</v>
+        <v>0.007124530619649319</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.09643353348682637</v>
       </c>
       <c r="E95" t="n">
-        <v>2.329113472044389</v>
+        <v>2.331017374754934</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1053531941596841</v>
+        <v>-0.04688556835924527</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02730048326779598</v>
+        <v>-0.0291503641989773</v>
       </c>
     </row>
     <row r="96">
@@ -2644,10 +2644,10 @@
         <v>2.231252288703143</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01527743915928349</v>
+        <v>0.07341071394690425</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06561214517324024</v>
+        <v>-0.07225828408305664</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1485505438720173</v>
       </c>
       <c r="E97" t="n">
-        <v>2.077884457089821</v>
+        <v>2.084746683117091</v>
       </c>
       <c r="F97" t="n">
-        <v>0.09603269906744363</v>
+        <v>0.1421395577302494</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1175708765844081</v>
+        <v>-0.127935757981769</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1760150297916204</v>
       </c>
       <c r="E98" t="n">
-        <v>1.884417864707782</v>
+        <v>1.890945739722234</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1661923899798793</v>
+        <v>0.205936359062505</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1380451309632208</v>
+        <v>-0.1404060287262202</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2030952755679744</v>
       </c>
       <c r="E99" t="n">
-        <v>1.682563296043472</v>
+        <v>1.693820266824378</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1821755364310569</v>
+        <v>0.2142177518341392</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1360565454634032</v>
+        <v>-0.1337511295278583</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2290647063903367</v>
       </c>
       <c r="E100" t="n">
-        <v>1.515089939823881</v>
+        <v>1.537563000039147</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2112363336325036</v>
+        <v>0.236305359353406</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1297432975183139</v>
+        <v>-0.1308748347887682</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2526028492685398</v>
       </c>
       <c r="E101" t="n">
-        <v>1.365325506898921</v>
+        <v>1.396049298875913</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2092798691906859</v>
+        <v>0.2254966233364089</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1111408247920462</v>
+        <v>-0.1105392849785918</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2722534758737415</v>
       </c>
       <c r="E102" t="n">
-        <v>1.171435500570519</v>
+        <v>1.217913211448415</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2224100816722279</v>
+        <v>0.2393261988534961</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.142839928893765</v>
+        <v>-0.1418806772980379</v>
       </c>
     </row>
   </sheetData>
